--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TIMES-models\TIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF8F9E4D-E1D9-4EA1-AA5D-ABD8E3290452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E6331C-8C70-4B90-AD6C-F1387FE90BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="3135" windowWidth="21600" windowHeight="11295" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="83" r:id="rId1"/>
@@ -6240,9 +6240,6 @@
     <t>RENWIN</t>
   </si>
   <si>
-    <t>SUPH2GD</t>
-  </si>
-  <si>
     <t>H2G</t>
   </si>
   <si>
@@ -6255,9 +6252,6 @@
     <t>H2L</t>
   </si>
   <si>
-    <t>SUPH2LD</t>
-  </si>
-  <si>
     <t>Ethanol</t>
   </si>
   <si>
@@ -6445,6 +6439,12 @@
   </si>
   <si>
     <t>Last Updated : 1st September 2022</t>
+  </si>
+  <si>
+    <t>H2GMD, H2GHD</t>
+  </si>
+  <si>
+    <t>H2LD</t>
   </si>
 </sst>
 </file>
@@ -12853,7 +12853,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
       <c r="A16" s="599" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B16" s="599"/>
       <c r="C16" s="599"/>
@@ -12942,7 +12942,7 @@
         <v>74</v>
       </c>
       <c r="B19" s="598" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C19" s="598"/>
       <c r="D19" s="598"/>
@@ -12971,10 +12971,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1">
       <c r="A20" s="315" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B20" s="598" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C20" s="598"/>
       <c r="D20" s="598"/>
@@ -13003,10 +13003,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1">
       <c r="A21" s="315" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B21" s="318" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C21" s="318"/>
       <c r="D21" s="318"/>
@@ -13063,7 +13063,7 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1">
       <c r="A23" s="315" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B23" s="598"/>
       <c r="C23" s="598"/>
@@ -13149,10 +13149,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1">
       <c r="A26" s="315" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B26" s="598" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C26" s="598"/>
       <c r="D26" s="598"/>
@@ -13237,7 +13237,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1">
       <c r="A29" s="315" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B29" s="319">
         <v>1</v>
@@ -13269,10 +13269,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1">
       <c r="A30" s="315" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B30" s="600" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C30" s="598"/>
       <c r="D30" s="598"/>
@@ -13301,10 +13301,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1">
       <c r="A31" s="315" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B31" s="598" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C31" s="598"/>
       <c r="D31" s="598"/>
@@ -13334,7 +13334,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1">
       <c r="A32" s="321"/>
       <c r="B32" s="322" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C32" s="321"/>
       <c r="D32" s="321"/>
@@ -16728,7 +16728,7 @@
         <v>138</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L5" s="271" t="s">
         <v>496</v>
@@ -18187,7 +18187,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E16" s="21">
         <v>2018</v>
@@ -18195,7 +18195,7 @@
     </row>
     <row r="17" spans="2:5" ht="25.5">
       <c r="B17" s="39" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>517</v>
@@ -18409,7 +18409,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>129</v>
@@ -18715,7 +18715,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E13" s="21">
         <v>2018</v>
@@ -18723,7 +18723,7 @@
     </row>
     <row r="14" spans="2:30" ht="25.5">
       <c r="B14" s="39" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>517</v>
@@ -18966,7 +18966,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="300" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C18" s="303">
         <v>74.099999999999994</v>
@@ -18974,7 +18974,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="305" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C19" s="299">
         <v>77.400000000000006</v>
@@ -20175,7 +20175,7 @@
     </row>
     <row r="10" spans="1:45" ht="12.75" customHeight="1">
       <c r="A10" s="402" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B10" s="403"/>
       <c r="C10" s="404">
@@ -20257,7 +20257,7 @@
     </row>
     <row r="11" spans="1:45" ht="12.75" customHeight="1">
       <c r="A11" s="351" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B11" s="352"/>
       <c r="C11" s="353">
@@ -20337,7 +20337,7 @@
     </row>
     <row r="12" spans="1:45" ht="12.75" customHeight="1">
       <c r="A12" s="351" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B12" s="352"/>
       <c r="C12" s="353"/>
@@ -20389,7 +20389,7 @@
     </row>
     <row r="13" spans="1:45" ht="12.75" customHeight="1">
       <c r="A13" s="351" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B13" s="352"/>
       <c r="C13" s="353">
@@ -20453,7 +20453,7 @@
     </row>
     <row r="14" spans="1:45" ht="12.75" customHeight="1">
       <c r="A14" s="415" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B14" s="416"/>
       <c r="C14" s="417">
@@ -20695,7 +20695,7 @@
     </row>
     <row r="16" spans="1:45" ht="12.75" customHeight="1">
       <c r="A16" s="402" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B16" s="403"/>
       <c r="C16" s="404">
@@ -20759,7 +20759,7 @@
     </row>
     <row r="17" spans="1:45" ht="12.75" customHeight="1">
       <c r="A17" s="351" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B17" s="352"/>
       <c r="C17" s="353">
@@ -20823,7 +20823,7 @@
     </row>
     <row r="18" spans="1:45" ht="12.75" customHeight="1">
       <c r="A18" s="351" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B18" s="352"/>
       <c r="C18" s="353"/>
@@ -20875,7 +20875,7 @@
     </row>
     <row r="19" spans="1:45" ht="12.75" customHeight="1">
       <c r="A19" s="351" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B19" s="352"/>
       <c r="C19" s="353"/>
@@ -20936,7 +20936,7 @@
     </row>
     <row r="20" spans="1:45" ht="12.75" customHeight="1">
       <c r="A20" s="415" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B20" s="416"/>
       <c r="C20" s="417"/>
@@ -21181,7 +21181,7 @@
     </row>
     <row r="22" spans="1:45" ht="12.75" customHeight="1">
       <c r="A22" s="402" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B22" s="403"/>
       <c r="C22" s="453"/>
@@ -21245,7 +21245,7 @@
     </row>
     <row r="23" spans="1:45" ht="12.75" customHeight="1">
       <c r="A23" s="457" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B23" s="428"/>
       <c r="C23" s="458"/>
@@ -21295,7 +21295,7 @@
     </row>
     <row r="24" spans="1:45" ht="12.75" customHeight="1" thickBot="1">
       <c r="A24" s="366" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B24" s="367"/>
       <c r="C24" s="467">
@@ -25928,7 +25928,7 @@
     </row>
     <row r="74" spans="1:45" s="83" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="457" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B74" s="435"/>
       <c r="C74" s="435"/>
@@ -25973,7 +25973,7 @@
     </row>
     <row r="75" spans="1:45" ht="12.75" customHeight="1">
       <c r="A75" s="588" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B75" s="87"/>
       <c r="C75" s="87"/>
@@ -29664,26 +29664,26 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="295" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B9" s="297" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C9" s="298"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="296" t="s">
+        <v>564</v>
+      </c>
+      <c r="B10" s="297" t="s">
         <v>566</v>
-      </c>
-      <c r="B10" s="297" t="s">
-        <v>568</v>
       </c>
       <c r="C10" s="298"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="289"/>
       <c r="B11" s="297" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C11" s="298"/>
     </row>
@@ -29704,14 +29704,14 @@
     <row r="15" spans="1:3">
       <c r="A15" s="294"/>
       <c r="B15" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="293"/>
       <c r="B16" s="25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C16" s="26"/>
     </row>
@@ -29961,10 +29961,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" si="0"/>
@@ -29997,10 +29997,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" si="0"/>
@@ -30009,10 +30009,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>559</v>
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" si="0"/>
@@ -30033,10 +30033,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C51" s="10" t="str">
         <f t="shared" si="0"/>
@@ -30045,7 +30045,7 @@
     </row>
     <row r="53" spans="1:3" ht="21">
       <c r="A53" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B53" s="4"/>
     </row>
@@ -30068,7 +30068,7 @@
         <v>475</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -30077,7 +30077,7 @@
         <v>180</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -30108,7 +30108,7 @@
         <v>180</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30">
@@ -30117,7 +30117,7 @@
         <v>182</v>
       </c>
       <c r="C60" s="78" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -30949,7 +30949,7 @@
   <sheetData>
     <row r="1" spans="1:44" ht="23.25">
       <c r="B1" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:44" customFormat="1"/>
@@ -37134,7 +37134,7 @@
         <v>475</v>
       </c>
       <c r="G101" s="225" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H101" s="225" t="s">
         <v>404</v>
@@ -37852,7 +37852,7 @@
         <v>SRV-Commercial Services: Building lighting</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>30</v>
@@ -38013,7 +38013,7 @@
         <v>SRV-Public Services: Building lighting</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>30</v>
@@ -38912,8 +38912,8 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -38968,10 +38968,10 @@
         <v>87</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>14</v>
@@ -39015,10 +39015,10 @@
         <v>129</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I4" s="37" t="s">
         <v>115</v>
@@ -39082,7 +39082,7 @@
         <v>46</v>
       </c>
       <c r="N5" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
@@ -39121,7 +39121,7 @@
         <v>46</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
@@ -39167,14 +39167,14 @@
         <v>46</v>
       </c>
       <c r="N7" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
     </row>
     <row r="8" spans="2:17">
       <c r="C8" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F8" s="60">
         <f>EB_SRV!V5*Legend!$B$65/EB_SRV!$F$12</f>
@@ -39202,14 +39202,14 @@
         <v>46</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
     </row>
     <row r="9" spans="2:17">
       <c r="C9" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F9" s="60">
         <f>EB_SRV!T5*Legend!$B$65/EB_SRV!$F$12</f>
@@ -39237,7 +39237,7 @@
         <v>46</v>
       </c>
       <c r="N9" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
@@ -39276,7 +39276,7 @@
         <v>46</v>
       </c>
       <c r="N10" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
@@ -39315,7 +39315,7 @@
         <v>46</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O11" s="36"/>
       <c r="P11" s="36"/>
@@ -39354,7 +39354,7 @@
         <v>46</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O12" s="36" t="s">
         <v>88</v>
@@ -39395,7 +39395,7 @@
         <v>46</v>
       </c>
       <c r="N13" s="46" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O13" s="46"/>
       <c r="P13" s="46"/>
@@ -39435,7 +39435,7 @@
         <v>46</v>
       </c>
       <c r="N14" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O14" s="36" t="s">
         <v>88</v>
@@ -39476,7 +39476,7 @@
         <v>46</v>
       </c>
       <c r="N15" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
@@ -39505,7 +39505,7 @@
         <v>46</v>
       </c>
       <c r="N16" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
@@ -39546,7 +39546,7 @@
         <v>46</v>
       </c>
       <c r="N17" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
@@ -39585,7 +39585,7 @@
         <v>46</v>
       </c>
       <c r="N18" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
@@ -39596,7 +39596,7 @@
         <v>FT-SRVH2G</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="D19" s="9" t="str">
         <f>Legend!C48</f>
@@ -39624,7 +39624,7 @@
         <v>46</v>
       </c>
       <c r="N19" s="46" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O19" s="46"/>
       <c r="P19" s="46"/>
@@ -39636,7 +39636,7 @@
         <v>FT-SRVH2L</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="D20" s="9" t="str">
         <f>Legend!C49</f>
@@ -39758,10 +39758,10 @@
         <v>141</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>29</v>
@@ -39811,7 +39811,7 @@
         <v>133</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H4" s="39" t="s">
         <v>134</v>
@@ -40213,7 +40213,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E25" s="21">
         <v>2018</v>
@@ -40223,7 +40223,7 @@
     <row r="26" spans="1:15" ht="25.5">
       <c r="A26" s="52"/>
       <c r="B26" s="39" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>517</v>
@@ -40296,7 +40296,7 @@
   </sheetPr>
   <dimension ref="A1:AK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
@@ -40450,7 +40450,7 @@
     </row>
     <row r="4" spans="1:37" ht="60.75" thickBot="1">
       <c r="B4" s="39" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>116</v>
